--- a/TSIModel.xlsx
+++ b/TSIModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tsimodel-update-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AF4D2-D586-4D8A-AC3C-774FC6659801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D09C7CF-0EA2-4B60-A9E5-371AA5C32F59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="17640" activeTab="4" xr2:uid="{0306BE7E-148A-4B67-B2E4-AA8143E494D0}"/>
+    <workbookView xWindow="1740" yWindow="1830" windowWidth="21315" windowHeight="13035" xr2:uid="{2B950E8D-2683-4191-8D20-62124388BDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Instances (By Functional Locati" sheetId="5" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Default type</t>
+  </si>
+  <si>
+    <t>EventCount,Value,BoolValue</t>
   </si>
   <si>
     <t>882e30eb-10d6-4c5f-a4d4-39459cd9cb48</t>
@@ -794,10 +798,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65102993-C088-40A8-9C3A-A1F7F0CE862E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD1DF47-E20A-4377-8923-8961DDA7C296}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -819,46 +823,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -869,40 +873,40 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -913,40 +917,40 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -957,40 +961,40 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1001,40 +1005,40 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1045,40 +1049,40 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1089,40 +1093,40 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1133,40 +1137,40 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1177,40 +1181,40 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1221,40 +1225,40 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1265,40 +1269,40 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1309,40 +1313,40 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1353,40 +1357,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,40 +1401,40 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1441,40 +1445,40 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1485,40 +1489,40 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1529,40 +1533,40 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1573,40 +1577,40 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1617,40 +1621,40 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1661,40 +1665,40 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1705,40 +1709,40 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1749,40 +1753,40 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1793,40 +1797,40 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1837,40 +1841,40 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1881,40 +1885,40 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1925,40 +1929,40 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1969,40 +1973,40 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2013,40 +2017,40 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2057,40 +2061,40 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2101,40 +2105,40 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2145,40 +2149,40 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2189,40 +2193,40 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2233,40 +2237,40 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2277,40 +2281,40 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2321,40 +2325,40 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2365,40 +2369,40 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2409,40 +2413,40 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2453,40 +2457,40 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2497,40 +2501,40 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2541,40 +2545,40 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2585,40 +2589,40 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,40 +2633,40 @@
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,40 +2677,40 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98FADF1-968D-4F96-A561-534BEC730E74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82285E83-CEFD-458B-80E2-3F94AB01AAA1}">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2738,40 +2742,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2782,34 +2786,34 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2820,34 +2824,34 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2858,34 +2862,34 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2896,34 +2900,34 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2934,34 +2938,34 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2972,34 +2976,34 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3010,34 +3014,34 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3048,34 +3052,34 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3086,34 +3090,34 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3124,34 +3128,34 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3162,34 +3166,34 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3200,34 +3204,34 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3238,34 +3242,34 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,34 +3280,34 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3314,34 +3318,34 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,34 +3356,34 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3390,34 +3394,34 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3428,34 +3432,34 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3466,34 +3470,34 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3504,34 +3508,34 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3542,34 +3546,34 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3580,34 +3584,34 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3618,34 +3622,34 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3656,34 +3660,34 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3694,34 +3698,34 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3732,34 +3736,34 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3770,34 +3774,34 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3808,34 +3812,34 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3846,34 +3850,34 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3884,34 +3888,34 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3922,34 +3926,34 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3960,34 +3964,34 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3998,34 +4002,34 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4036,34 +4040,34 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4074,34 +4078,34 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4112,34 +4116,34 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4150,34 +4154,34 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4188,34 +4192,34 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4226,34 +4230,34 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4264,34 +4268,34 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4302,34 +4306,34 @@
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4340,34 +4344,34 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A33B69-E8C0-4123-8E98-1D529A9542E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E8091-A0A3-4381-8E8E-8E8DC0CCAE09}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4393,19 +4397,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -4419,16 +4423,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4439,16 +4443,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,16 +4463,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,16 +4483,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,16 +4503,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,16 +4523,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,16 +4543,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,16 +4563,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,16 +4583,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,16 +4603,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,16 +4623,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,16 +4643,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,16 +4663,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,16 +4683,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,16 +4703,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,16 +4723,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,16 +4743,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,16 +4763,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,16 +4783,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,16 +4803,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,16 +4823,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,16 +4843,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,16 +4863,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,16 +4883,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,16 +4903,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,16 +4923,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,16 +4943,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,16 +4963,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,16 +4983,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,16 +5003,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,16 +5023,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,16 +5043,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,16 +5063,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,16 +5083,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,16 +5103,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,16 +5123,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5139,16 +5143,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5159,16 +5163,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,16 +5183,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,16 +5203,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,16 +5223,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,16 +5243,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5257,7 +5261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF966DC-3D68-4ECB-9D58-9BD2EDEE72E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81FE983-C884-446B-8822-653BE69E9880}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5277,29 +5281,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5308,12 +5312,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18E7BF0-05EA-477C-981E-3AD159EA39AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576D266F-7685-46B0-A669-AD341D73DAD1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5360,15 +5362,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
